--- a/Assignment2/Tests.xlsx
+++ b/Assignment2/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="11">
   <si>
     <t>max</t>
   </si>
   <si>
     <t>avg</t>
   </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>avg score</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>avg time</t>
+  </si>
+  <si>
+    <t>time dev</t>
+  </si>
+  <si>
+    <t>score dev</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Avg Score</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,13 +108,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -82,6 +161,2027 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avg Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>output!$O$8:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$N$8:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1117.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2794.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7807.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7702.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9254.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8240.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7616.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Avg Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>output!$O$8:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$N$8:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1117.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2794.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7807.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7702.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9254.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8240.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7616.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-726220448"/>
+        <c:axId val="-726401440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-726220448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-726401440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-726401440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-726220448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>output!$J$22:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$I$22:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1029.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4071.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7842.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9877.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7612.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6021.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-725209072"/>
+        <c:axId val="-825398576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-725209072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-825398576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-825398576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-725209072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3" title="Avg Score"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,15 +2447,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D700"/>
+  <dimension ref="A1:W700"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="P18" sqref="P18:W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +2473,7 @@
         <v>1.47E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -383,7 +2487,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -396,8 +2500,26 @@
       <c r="D3">
         <v>1.13E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -410,8 +2532,30 @@
       <c r="D4">
         <v>1.11E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(C1:C50)</f>
+        <v>1117.28</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(D1:D50)</f>
+        <v>1.1088E-4</v>
+      </c>
+      <c r="I4">
+        <f>STDEV(C1:C50)</f>
+        <v>637.7646882283625</v>
+      </c>
+      <c r="J4">
+        <f>STDEV(D1:D50)</f>
+        <v>3.9088408428450846E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -424,8 +2568,30 @@
       <c r="D5">
         <v>6.4999999999999994E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(C51:C100)</f>
+        <v>1029.44</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(D51:D100)</f>
+        <v>9.8019999999999986E-5</v>
+      </c>
+      <c r="I5">
+        <f>STDEV(C51:C100)</f>
+        <v>545.34393416504804</v>
+      </c>
+      <c r="J5">
+        <f>STDEV(D51:D100)</f>
+        <v>3.1807129222672001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -438,8 +2604,30 @@
       <c r="D6">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(C101:C150)</f>
+        <v>2794.72</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(D101:D150)</f>
+        <v>0.61905325989799986</v>
+      </c>
+      <c r="I6">
+        <f>STDEV(C101:C150)</f>
+        <v>2500.2182356991257</v>
+      </c>
+      <c r="J6">
+        <f>STDEV(D101:D150)</f>
+        <v>0.45597484058688198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -452,8 +2640,48 @@
       <c r="D7">
         <v>6.7000000000000002E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(C151:C200)</f>
+        <v>4071.84</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(D151:D200)</f>
+        <v>0.49967831986400002</v>
+      </c>
+      <c r="I7">
+        <f>STDEV(C151:C200)</f>
+        <v>3507.8729839942516</v>
+      </c>
+      <c r="J7">
+        <f>STDEV(D151:D200)</f>
+        <v>0.48425887916855209</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -466,8 +2694,48 @@
       <c r="D8">
         <v>1.3200000000000001E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(C201:C250)</f>
+        <v>7807.6</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(D201:D250)</f>
+        <v>0.65831366011400017</v>
+      </c>
+      <c r="I8">
+        <f>STDEV(C201:C250)</f>
+        <v>3397.4395400906592</v>
+      </c>
+      <c r="J8">
+        <f>STDEV(D201:D250)</f>
+        <v>0.45103502352126434</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1117.28</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>637.7646882283625</v>
+      </c>
+      <c r="Q8">
+        <v>1.1088E-4</v>
+      </c>
+      <c r="R8">
+        <v>3.9088408428450846E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -480,8 +2748,48 @@
       <c r="D9">
         <v>7.7999999999999999E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C251:C300)</f>
+        <v>7842.32</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE(D251:D300)</f>
+        <v>0.61428023762399997</v>
+      </c>
+      <c r="I9">
+        <f>STDEV(C251:C300)</f>
+        <v>4015.5330316364311</v>
+      </c>
+      <c r="J9">
+        <f>STDEV(D251:D300)</f>
+        <v>0.46077791714961835</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2794.72</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2500.2182356991257</v>
+      </c>
+      <c r="Q9">
+        <v>0.61905325989799986</v>
+      </c>
+      <c r="R9">
+        <v>0.45597484058688198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -494,8 +2802,48 @@
       <c r="D10">
         <v>2.3699999999999999E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(C301:C350)</f>
+        <v>7702.48</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(D301:D350)</f>
+        <v>0.69119550142399999</v>
+      </c>
+      <c r="I10">
+        <f>STDEV(C301:C350)</f>
+        <v>4043.0275089797929</v>
+      </c>
+      <c r="J10">
+        <f>STDEV(D301:D350)</f>
+        <v>0.42295547710156289</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>7807.6</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>3397.4395400906592</v>
+      </c>
+      <c r="Q10">
+        <v>0.65831366011400017</v>
+      </c>
+      <c r="R10">
+        <v>0.45103502352126434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -508,8 +2856,48 @@
       <c r="D11">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE(C351:C400)</f>
+        <v>9877.0400000000009</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(D351:D400)</f>
+        <v>0.50130044007999996</v>
+      </c>
+      <c r="I11">
+        <f>STDEV(C351:C400)</f>
+        <v>5779.528336662579</v>
+      </c>
+      <c r="J11">
+        <f>STDEV(D351:D400)</f>
+        <v>0.45971469805786758</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>7702.48</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>4043.0275089797929</v>
+      </c>
+      <c r="Q11">
+        <v>0.69119550142399999</v>
+      </c>
+      <c r="R11">
+        <v>0.42295547710156289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -522,8 +2910,48 @@
       <c r="D12">
         <v>1.74E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(C401:C450)</f>
+        <v>9254.9599999999991</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE(D401:D450)</f>
+        <v>0.65580602012800016</v>
+      </c>
+      <c r="I12">
+        <f>STDEV(C401:C450)</f>
+        <v>4445.3137395762415</v>
+      </c>
+      <c r="J12">
+        <f>STDEV(D401:D450)</f>
+        <v>0.40822983262338786</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9254.9599999999991</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>4445.3137395762415</v>
+      </c>
+      <c r="Q12">
+        <v>0.65580602012800016</v>
+      </c>
+      <c r="R12">
+        <v>0.40822983262338786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -536,8 +2964,48 @@
       <c r="D13">
         <v>9.1000000000000003E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(C451:C500)</f>
+        <v>8192.7999999999993</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(D451:D500)</f>
+        <v>0.28143077854200005</v>
+      </c>
+      <c r="I13">
+        <f>STDEV(C451:C500)</f>
+        <v>3612.2084148970503</v>
+      </c>
+      <c r="J13">
+        <f>STDEV(D451:D500)</f>
+        <v>0.34424345899903219</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8240.48</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>4856.842050517339</v>
+      </c>
+      <c r="Q13">
+        <v>0.55744764194199992</v>
+      </c>
+      <c r="R13">
+        <v>0.36753746543807914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -550,8 +3018,48 @@
       <c r="D14">
         <v>1.1E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(C501:C550)</f>
+        <v>8240.48</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(D501:D550)</f>
+        <v>0.55744764194199992</v>
+      </c>
+      <c r="I14">
+        <f>STDEV(C501:C550)</f>
+        <v>4856.842050517339</v>
+      </c>
+      <c r="J14">
+        <f>STDEV(D501:D550)</f>
+        <v>0.36753746543807914</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>7616.08</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>4361.942011984841</v>
+      </c>
+      <c r="Q14">
+        <v>0.66697016060799985</v>
+      </c>
+      <c r="R14">
+        <v>0.36179207390861778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -564,8 +3072,54 @@
       <c r="D15">
         <v>1.2899999999999999E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(C551:C600)</f>
+        <v>7612.16</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(D551:D600)</f>
+        <v>0.26378225773399999</v>
+      </c>
+      <c r="I15">
+        <f>STDEV(C551:C600)</f>
+        <v>3374.1421486332893</v>
+      </c>
+      <c r="J15">
+        <f>STDEV(D551:D600)</f>
+        <v>0.24699218594810721</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -578,8 +3132,54 @@
       <c r="D16">
         <v>6.7000000000000002E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(C601:C650)</f>
+        <v>7616.08</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(D601:D650)</f>
+        <v>0.66697016060799985</v>
+      </c>
+      <c r="I16">
+        <f>STDEV(C601:C650)</f>
+        <v>4361.942011984841</v>
+      </c>
+      <c r="J16">
+        <f>STDEV(D601:D650)</f>
+        <v>0.36179207390861778</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>1117.28</v>
+      </c>
+      <c r="O16">
+        <v>2794.72</v>
+      </c>
+      <c r="P16">
+        <v>7807.6</v>
+      </c>
+      <c r="Q16">
+        <v>7702.48</v>
+      </c>
+      <c r="R16">
+        <v>9254.9599999999991</v>
+      </c>
+      <c r="S16">
+        <v>8240.48</v>
+      </c>
+      <c r="T16">
+        <v>7616.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -592,8 +3192,54 @@
       <c r="D17">
         <v>1.0900000000000001E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(C651:C700)</f>
+        <v>6021.84</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(D651:D700)</f>
+        <v>0.41695322036199989</v>
+      </c>
+      <c r="I17">
+        <f>STDEV(C651:C700)</f>
+        <v>2781.5003098826992</v>
+      </c>
+      <c r="J17">
+        <f>STDEV(D651:D700)</f>
+        <v>0.21839932277907914</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>637.7646882283625</v>
+      </c>
+      <c r="O17">
+        <v>2500.2182356991257</v>
+      </c>
+      <c r="P17">
+        <v>3397.4395400906592</v>
+      </c>
+      <c r="Q17">
+        <v>4043.0275089797929</v>
+      </c>
+      <c r="R17">
+        <v>4445.3137395762415</v>
+      </c>
+      <c r="S17">
+        <v>4856.842050517339</v>
+      </c>
+      <c r="T17">
+        <v>4361.942011984841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -606,8 +3252,32 @@
       <c r="D18">
         <v>1.07E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -620,8 +3290,32 @@
       <c r="D19">
         <v>1.76E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19">
+        <v>1117.28</v>
+      </c>
+      <c r="R19">
+        <v>2794.72</v>
+      </c>
+      <c r="S19">
+        <v>7807.6</v>
+      </c>
+      <c r="T19">
+        <v>7702.48</v>
+      </c>
+      <c r="U19">
+        <v>9254.9599999999991</v>
+      </c>
+      <c r="V19">
+        <v>8240.48</v>
+      </c>
+      <c r="W19">
+        <v>7616.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -634,8 +3328,32 @@
       <c r="D20">
         <v>5.3000000000000001E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>637.7646882283625</v>
+      </c>
+      <c r="R20">
+        <v>2500.2182356991257</v>
+      </c>
+      <c r="S20">
+        <v>3397.4395400906592</v>
+      </c>
+      <c r="T20">
+        <v>4043.0275089797929</v>
+      </c>
+      <c r="U20">
+        <v>4445.3137395762415</v>
+      </c>
+      <c r="V20">
+        <v>4856.842050517339</v>
+      </c>
+      <c r="W20">
+        <v>4361.942011984841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -648,8 +3366,50 @@
       <c r="D21">
         <v>1.56E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>1.1088E-4</v>
+      </c>
+      <c r="R21">
+        <v>0.61905325989799986</v>
+      </c>
+      <c r="S21">
+        <v>0.65831366011400017</v>
+      </c>
+      <c r="T21">
+        <v>0.69119550142399999</v>
+      </c>
+      <c r="U21">
+        <v>0.65580602012800016</v>
+      </c>
+      <c r="V21">
+        <v>0.55744764194199992</v>
+      </c>
+      <c r="W21">
+        <v>0.66697016060799985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -662,8 +3422,50 @@
       <c r="D22">
         <v>1.18E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1029.44</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>545.34393416504804</v>
+      </c>
+      <c r="L22">
+        <v>9.8019999999999986E-5</v>
+      </c>
+      <c r="M22">
+        <v>3.1807129222672001E-5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>3.9088408428450846E-5</v>
+      </c>
+      <c r="R22">
+        <v>0.45597484058688198</v>
+      </c>
+      <c r="S22">
+        <v>0.45103502352126434</v>
+      </c>
+      <c r="T22">
+        <v>0.42295547710156289</v>
+      </c>
+      <c r="U22">
+        <v>0.40822983262338786</v>
+      </c>
+      <c r="V22">
+        <v>0.36753746543807914</v>
+      </c>
+      <c r="W22">
+        <v>0.36179207390861778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -676,8 +3478,26 @@
       <c r="D23">
         <v>9.2999999999999997E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>4071.84</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3507.8729839942516</v>
+      </c>
+      <c r="L23">
+        <v>0.49967831986400002</v>
+      </c>
+      <c r="M23">
+        <v>0.48425887916855209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -690,8 +3510,26 @@
       <c r="D24">
         <v>1.5799999999999999E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>7842.32</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>4015.5330316364311</v>
+      </c>
+      <c r="L24">
+        <v>0.61428023762399997</v>
+      </c>
+      <c r="M24">
+        <v>0.46077791714961835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -704,8 +3542,26 @@
       <c r="D25">
         <v>9.8999999999999994E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>9877.0400000000009</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>5779.528336662579</v>
+      </c>
+      <c r="L25">
+        <v>0.50130044007999996</v>
+      </c>
+      <c r="M25">
+        <v>0.45971469805786758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -718,8 +3574,26 @@
       <c r="D26">
         <v>1.02E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>8192.7999999999993</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>3612.2084148970503</v>
+      </c>
+      <c r="L26">
+        <v>0.28143077854200005</v>
+      </c>
+      <c r="M26">
+        <v>0.34424345899903219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -732,8 +3606,26 @@
       <c r="D27">
         <v>7.2999999999999999E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>7612.16</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>3374.1421486332893</v>
+      </c>
+      <c r="L27">
+        <v>0.26378225773399999</v>
+      </c>
+      <c r="M27">
+        <v>0.24699218594810721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -746,8 +3638,26 @@
       <c r="D28">
         <v>1.07E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>6021.84</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>2781.5003098826992</v>
+      </c>
+      <c r="L28">
+        <v>0.41695322036199989</v>
+      </c>
+      <c r="M28">
+        <v>0.21839932277907914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -761,7 +3671,7 @@
         <v>5.3999999999999998E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -774,8 +3684,32 @@
       <c r="D30">
         <v>8.6000000000000003E-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -788,8 +3722,32 @@
       <c r="D31">
         <v>8.2000000000000001E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>1029.44</v>
+      </c>
+      <c r="I31">
+        <v>4071.84</v>
+      </c>
+      <c r="J31">
+        <v>7842.32</v>
+      </c>
+      <c r="K31">
+        <v>9877.0400000000009</v>
+      </c>
+      <c r="L31">
+        <v>8192.7999999999993</v>
+      </c>
+      <c r="M31">
+        <v>7612.16</v>
+      </c>
+      <c r="N31">
+        <v>6021.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -802,8 +3760,32 @@
       <c r="D32">
         <v>1.01E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>545.34393416504804</v>
+      </c>
+      <c r="I32">
+        <v>3507.8729839942516</v>
+      </c>
+      <c r="J32">
+        <v>4015.5330316364311</v>
+      </c>
+      <c r="K32">
+        <v>5779.528336662579</v>
+      </c>
+      <c r="L32">
+        <v>3612.2084148970503</v>
+      </c>
+      <c r="M32">
+        <v>3374.1421486332893</v>
+      </c>
+      <c r="N32">
+        <v>2781.5003098826992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -816,8 +3798,32 @@
       <c r="D33">
         <v>8.2999999999999998E-5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>9.8019999999999986E-5</v>
+      </c>
+      <c r="I33">
+        <v>0.49967831986400002</v>
+      </c>
+      <c r="J33">
+        <v>0.61428023762399997</v>
+      </c>
+      <c r="K33">
+        <v>0.50130044007999996</v>
+      </c>
+      <c r="L33">
+        <v>0.28143077854200005</v>
+      </c>
+      <c r="M33">
+        <v>0.26378225773399999</v>
+      </c>
+      <c r="N33">
+        <v>0.41695322036199989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -830,8 +3836,32 @@
       <c r="D34">
         <v>1.0399999999999999E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>3.1807129222672001E-5</v>
+      </c>
+      <c r="I34">
+        <v>0.48425887916855209</v>
+      </c>
+      <c r="J34">
+        <v>0.46077791714961835</v>
+      </c>
+      <c r="K34">
+        <v>0.45971469805786758</v>
+      </c>
+      <c r="L34">
+        <v>0.34424345899903219</v>
+      </c>
+      <c r="M34">
+        <v>0.24699218594810721</v>
+      </c>
+      <c r="N34">
+        <v>0.21839932277907914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -845,7 +3875,7 @@
         <v>9.6000000000000002E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -859,7 +3889,7 @@
         <v>1.01E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -873,7 +3903,7 @@
         <v>1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -887,7 +3917,7 @@
         <v>1.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -901,7 +3931,7 @@
         <v>1.94E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -915,7 +3945,7 @@
         <v>1.55E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -929,7 +3959,7 @@
         <v>1.47E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -943,7 +3973,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -957,7 +3987,7 @@
         <v>8.1000000000000004E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -971,7 +4001,7 @@
         <v>9.3999999999999994E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -985,7 +4015,7 @@
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -999,7 +4029,7 @@
         <v>8.8999999999999995E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +4043,7 @@
         <v>1.15E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -10157,5 +13187,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>